--- a/data/outputs/management/74.xlsx
+++ b/data/outputs/management/74.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ47"/>
+  <dimension ref="A1:BR47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -911,6 +916,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>6683017</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1321,6 +1332,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4792023</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1524,6 +1540,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>7297012</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1735,6 +1756,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1926,6 +1948,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2117,6 +2140,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2328,6 +2352,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2527,6 +2552,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2734,6 +2760,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2941,6 +2968,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3148,6 +3176,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3351,6 +3380,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3558,6 +3588,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3765,6 +3796,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3972,6 +4004,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4183,6 +4216,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4394,6 +4428,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4597,6 +4632,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4800,6 +4836,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5007,6 +5044,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5206,6 +5244,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4337270</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5421,6 +5464,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5616,6 +5660,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5811,6 +5856,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6006,6 +6052,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6213,6 +6260,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6408,6 +6456,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4177719</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6607,6 +6660,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>3917807</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6814,6 +6872,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>3964259</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7021,6 +7084,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7224,6 +7288,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7431,6 +7496,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7638,6 +7704,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7841,6 +7908,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8040,6 +8108,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8239,6 +8308,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8450,6 +8520,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>2903195</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8649,6 +8724,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8848,6 +8924,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>2744172</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9043,6 +9124,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9238,6 +9320,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>3104259</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9441,6 +9528,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>23838889</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9640,6 +9732,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>3036999</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9835,6 +9932,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>3704103</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10046,6 +10148,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>3704101</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
